--- a/biology/Botanique/Colutea_orientalis/Colutea_orientalis.xlsx
+++ b/biology/Botanique/Colutea_orientalis/Colutea_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baguenaudier du Levant[1], aussi appelé baguenaudier d'Orient, - Colutea orientalis - est une espèce de plantes de la famille des Fabacées originaire du Proche-Orient.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baguenaudier du Levant, aussi appelé baguenaudier d'Orient, - Colutea orientalis - est une espèce de plantes de la famille des Fabacées originaire du Proche-Orient.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colutea orientalis est un arbuste caduc de moins de deux mètres de haut.
 Les feuilles sont imparipennées avec sept à neuf folioles, vert glauques, longues de cinq à six centimètres.
@@ -547,10 +561,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baguenaudier du Levant est originaire du Proche-Orient.
-Il y croît dans des endroits rocheux, sur sols calcaires, parmi les arbustes et buissons xérophiles ou semi-xérophiles[2].
+Il y croît dans des endroits rocheux, sur sols calcaires, parmi les arbustes et buissons xérophiles ou semi-xérophiles.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale utilisation de cette espèce est ornementale.
 De nombreux horticulteurs la distribuent en France mais elle demeure plus rare que le baguenaudier commun.
@@ -611,14 +629,16 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Pitton de Tournefort publie, en 1703, dans l'additif à son Institutiones rei herbariae une première description du baguenaudier du Levant :
-Colutea orientalis, flore sanguinei coloris, lutea macula notato[3].
-En 1768, Philip Miller nomme cette espèce Colutea orientalis à partir de la description de Tournefort[4]
-Jean-Baptiste de Lamarck en 1783 reprend et complète la description très sommaire de Philip Miller[5]. L'apport descriptif de Lamarck a été considéré comme une nouvelle description de l'espèce par les index (IPNI, Tropicos).
+Colutea orientalis, flore sanguinei coloris, lutea macula notato.
+En 1768, Philip Miller nomme cette espèce Colutea orientalis à partir de la description de Tournefort
+Jean-Baptiste de Lamarck en 1783 reprend et complète la description très sommaire de Philip Miller. L'apport descriptif de Lamarck a été considéré comme une nouvelle description de l'espèce par les index (IPNI, Tropicos).
 En 1967, Kasimierz Browicz la place dans la section Rostrata, sous-section Orientales.
-Le baguenaudier du Levant compte cinq autres synonymes[2] :
+Le baguenaudier du Levant compte cinq autres synonymes :
 Colutea aperta Moench
 Colutea cruenta Aiton
 Colutea purpurea Hort. ex Lavallee (1877)
